--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_DAKOTA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_DAKOTA_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D184"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C46">
@@ -1033,7 +1033,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C49">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C53">
@@ -1155,7 +1155,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C58">
@@ -1207,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C62">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C65">
@@ -1290,7 +1290,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C68">
@@ -1373,7 +1373,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C74">
@@ -1412,7 +1412,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C77">
@@ -1425,7 +1425,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C78">
@@ -1438,7 +1438,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C79">
@@ -1534,7 +1534,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C86">
@@ -1560,7 +1560,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C88">
@@ -1599,7 +1599,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C91">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1643,7 +1643,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C94">
@@ -1874,7 +1874,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C111">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C113">
@@ -1918,7 +1918,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C114">
@@ -1931,7 +1931,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C115">
@@ -1970,7 +1970,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C118">
@@ -2009,7 +2009,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C121">
@@ -2118,7 +2118,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C129">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C132">
@@ -2214,7 +2214,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C136">
@@ -2310,7 +2310,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C143">
@@ -2336,7 +2336,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C145">
@@ -2577,7 +2577,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2660,7 +2660,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C168">
@@ -2795,7 +2795,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C178">
@@ -2803,41 +2803,6 @@
       </c>
       <c r="D178">
         <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_DAKOTA_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/NORTH_DAKOTA_2024.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chanal</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Ocotepec</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Desconocido</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -826,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -839,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -852,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>León</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1262,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1275,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -1288,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1371,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -1384,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1397,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1410,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1423,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1719,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1732,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -1745,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1815,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Los Herreras</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Juan Teposcolula</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Santa María Peñoles</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2051,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -2064,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -2077,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2090,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -2103,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -2116,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2129,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2142,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -2186,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2199,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>San Joaquín</t>
@@ -2212,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -2225,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2256,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -2269,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -2282,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -2295,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2308,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2321,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -2334,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2347,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -2360,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2391,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Concordia</t>
@@ -2404,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -2417,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -2430,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2461,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -2474,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -2487,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2518,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2549,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -2562,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2593,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Atzacan</t>
@@ -2606,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -2619,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2632,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2645,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2658,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2671,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2684,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2697,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2710,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2723,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2754,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -2767,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2780,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Total</t>
